--- a/data/pca/factorExposure/factorExposure_2011-06-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01776035080940407</v>
+        <v>-0.01602387704678768</v>
       </c>
       <c r="C2">
-        <v>0.005298278864074657</v>
+        <v>0.001155858988805637</v>
       </c>
       <c r="D2">
-        <v>0.05387205084394917</v>
+        <v>-0.006902933539468878</v>
       </c>
       <c r="E2">
-        <v>-0.03132136649510162</v>
+        <v>0.04022183549836193</v>
       </c>
       <c r="F2">
-        <v>0.04488321082240661</v>
+        <v>-0.001275969095476379</v>
       </c>
       <c r="G2">
-        <v>-0.01010596414453841</v>
+        <v>-0.03176431220669674</v>
       </c>
       <c r="H2">
-        <v>0.03045114856189936</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.02452116806733392</v>
+      </c>
+      <c r="I2">
+        <v>0.01408073347885058</v>
+      </c>
+      <c r="J2">
+        <v>-0.04709007574856383</v>
+      </c>
+      <c r="K2">
+        <v>0.04083387659400744</v>
+      </c>
+      <c r="L2">
+        <v>-0.0187370872319032</v>
+      </c>
+      <c r="M2">
+        <v>-0.005289771333309451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.07708047178671408</v>
+        <v>-0.1073573056856671</v>
       </c>
       <c r="C4">
-        <v>-0.05437968125860235</v>
+        <v>0.08057432348394271</v>
       </c>
       <c r="D4">
-        <v>0.02935026598322441</v>
+        <v>-0.01840649922727122</v>
       </c>
       <c r="E4">
-        <v>-0.05366276999848995</v>
+        <v>0.04971019126499689</v>
       </c>
       <c r="F4">
-        <v>0.005826777824934497</v>
+        <v>-0.1352764158136249</v>
       </c>
       <c r="G4">
-        <v>-0.01440210152435432</v>
+        <v>0.02606341585220198</v>
       </c>
       <c r="H4">
-        <v>-0.003232720915367412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.01214917877834592</v>
+      </c>
+      <c r="I4">
+        <v>0.0464418016196706</v>
+      </c>
+      <c r="J4">
+        <v>0.04691526878066947</v>
+      </c>
+      <c r="K4">
+        <v>-0.03715956393369758</v>
+      </c>
+      <c r="L4">
+        <v>0.06439071106766796</v>
+      </c>
+      <c r="M4">
+        <v>-0.03763510189158521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.126092051180143</v>
+        <v>-0.131643706191314</v>
       </c>
       <c r="C6">
-        <v>-0.0308051413947367</v>
+        <v>0.05318915459435113</v>
       </c>
       <c r="D6">
-        <v>0.04660121436726508</v>
+        <v>-0.006002962361938225</v>
       </c>
       <c r="E6">
-        <v>-0.05638231451048003</v>
+        <v>0.006954468885891059</v>
       </c>
       <c r="F6">
-        <v>-0.109670249311562</v>
+        <v>-0.02070525833819561</v>
       </c>
       <c r="G6">
-        <v>-0.006356730308968273</v>
+        <v>0.1791068273051687</v>
       </c>
       <c r="H6">
-        <v>-0.3081930153128561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.1321740107982322</v>
+      </c>
+      <c r="I6">
+        <v>0.2834678039265359</v>
+      </c>
+      <c r="J6">
+        <v>0.2982057672665015</v>
+      </c>
+      <c r="K6">
+        <v>0.07210208128900437</v>
+      </c>
+      <c r="L6">
+        <v>-0.09834001681474895</v>
+      </c>
+      <c r="M6">
+        <v>-0.01757141919665424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07512571644773476</v>
+        <v>-0.07622154775756072</v>
       </c>
       <c r="C7">
-        <v>-0.05691516909525033</v>
+        <v>0.0719518656150515</v>
       </c>
       <c r="D7">
-        <v>0.05321805934568893</v>
+        <v>-0.01000040818236794</v>
       </c>
       <c r="E7">
-        <v>-0.04904876545991837</v>
+        <v>0.04918331920186626</v>
       </c>
       <c r="F7">
-        <v>-0.02463469043676216</v>
+        <v>-0.02455361903264561</v>
       </c>
       <c r="G7">
-        <v>0.01095664648697366</v>
+        <v>-0.0002893997903928967</v>
       </c>
       <c r="H7">
-        <v>0.0121285997525515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.01259236788429589</v>
+      </c>
+      <c r="I7">
+        <v>-0.03875440822664719</v>
+      </c>
+      <c r="J7">
+        <v>0.006170313664804103</v>
+      </c>
+      <c r="K7">
+        <v>-0.02462230620641537</v>
+      </c>
+      <c r="L7">
+        <v>0.1073233705853332</v>
+      </c>
+      <c r="M7">
+        <v>0.02519780273363784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.03065331133849581</v>
+        <v>-0.03811563833701363</v>
       </c>
       <c r="C8">
-        <v>-0.008015743914559198</v>
+        <v>0.01131515893122156</v>
       </c>
       <c r="D8">
-        <v>0.04569356026083679</v>
+        <v>-0.01482342090358433</v>
       </c>
       <c r="E8">
-        <v>-0.05405953989482021</v>
+        <v>0.04700673387222949</v>
       </c>
       <c r="F8">
-        <v>0.01038198688563839</v>
+        <v>-0.1044557873051205</v>
       </c>
       <c r="G8">
-        <v>-0.06465464572793446</v>
+        <v>0.01989087028675455</v>
       </c>
       <c r="H8">
-        <v>0.02835698285266983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.001191989172151686</v>
+      </c>
+      <c r="I8">
+        <v>0.0589025206916174</v>
+      </c>
+      <c r="J8">
+        <v>0.01590571907927397</v>
+      </c>
+      <c r="K8">
+        <v>-0.006383737118447639</v>
+      </c>
+      <c r="L8">
+        <v>0.06931373142916755</v>
+      </c>
+      <c r="M8">
+        <v>-0.03922553505298179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07463393898396659</v>
+        <v>-0.08346333219061672</v>
       </c>
       <c r="C9">
-        <v>-0.06341100566887442</v>
+        <v>0.07348274784512629</v>
       </c>
       <c r="D9">
-        <v>0.0329391628926123</v>
+        <v>0.003420087764035628</v>
       </c>
       <c r="E9">
-        <v>-0.04530523935658031</v>
+        <v>0.03264058663661546</v>
       </c>
       <c r="F9">
-        <v>0.02410231183524403</v>
+        <v>-0.1276722965474765</v>
       </c>
       <c r="G9">
-        <v>-0.01674207599785769</v>
+        <v>0.02044869389058071</v>
       </c>
       <c r="H9">
-        <v>0.001155053854003886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.008425144902677392</v>
+      </c>
+      <c r="I9">
+        <v>0.01754518930425487</v>
+      </c>
+      <c r="J9">
+        <v>0.02955361269435572</v>
+      </c>
+      <c r="K9">
+        <v>-0.001937016171254655</v>
+      </c>
+      <c r="L9">
+        <v>0.04900616231213975</v>
+      </c>
+      <c r="M9">
+        <v>0.009957836024187735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06080449992430154</v>
+        <v>-0.1125863051503752</v>
       </c>
       <c r="C10">
-        <v>0.1368651329807232</v>
+        <v>-0.1670201379661929</v>
       </c>
       <c r="D10">
-        <v>0.05802104638625279</v>
+        <v>-0.002550574929455005</v>
       </c>
       <c r="E10">
-        <v>-0.03595201719452649</v>
+        <v>0.05305189239359037</v>
       </c>
       <c r="F10">
-        <v>-0.04273785377633618</v>
+        <v>0.01013163156858561</v>
       </c>
       <c r="G10">
-        <v>0.003515822643565721</v>
+        <v>0.007452725596704172</v>
       </c>
       <c r="H10">
-        <v>-0.03763721424392218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.009945179456514063</v>
+      </c>
+      <c r="I10">
+        <v>-0.05808277607560013</v>
+      </c>
+      <c r="J10">
+        <v>-0.007819932345490865</v>
+      </c>
+      <c r="K10">
+        <v>0.00140125641494081</v>
+      </c>
+      <c r="L10">
+        <v>0.008141630166571431</v>
+      </c>
+      <c r="M10">
+        <v>0.1147654089435801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07136555027314589</v>
+        <v>-0.06862966765875597</v>
       </c>
       <c r="C11">
-        <v>-0.08664334931195561</v>
+        <v>0.07151734019577652</v>
       </c>
       <c r="D11">
-        <v>0.03574748381676565</v>
+        <v>0.03179085866834738</v>
       </c>
       <c r="E11">
-        <v>-0.01499298012411355</v>
+        <v>0.01560037041291174</v>
       </c>
       <c r="F11">
-        <v>0.04548642810757075</v>
+        <v>-0.1163113519800634</v>
       </c>
       <c r="G11">
-        <v>-0.07087525532706723</v>
+        <v>0.002189346298846219</v>
       </c>
       <c r="H11">
-        <v>0.06237689932470932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.01828539462966368</v>
+      </c>
+      <c r="I11">
+        <v>-0.0554916785149567</v>
+      </c>
+      <c r="J11">
+        <v>-0.06622027059939471</v>
+      </c>
+      <c r="K11">
+        <v>0.04774836059784776</v>
+      </c>
+      <c r="L11">
+        <v>0.02736042229974382</v>
+      </c>
+      <c r="M11">
+        <v>0.1027292291775148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.06906216974739769</v>
+        <v>-0.07177639068769676</v>
       </c>
       <c r="C12">
-        <v>-0.05976304181043009</v>
+        <v>0.06377337099802702</v>
       </c>
       <c r="D12">
-        <v>0.02242303417644303</v>
+        <v>0.03003447736592077</v>
       </c>
       <c r="E12">
-        <v>-0.03260798373168038</v>
+        <v>0.005887346944465941</v>
       </c>
       <c r="F12">
-        <v>-0.001367077544254973</v>
+        <v>-0.1251169916073655</v>
       </c>
       <c r="G12">
-        <v>-0.04648765322371359</v>
+        <v>-0.001188384948865322</v>
       </c>
       <c r="H12">
-        <v>0.05379678615704014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.03514465563547473</v>
+      </c>
+      <c r="I12">
+        <v>-0.0297834742230225</v>
+      </c>
+      <c r="J12">
+        <v>-0.06673072629341108</v>
+      </c>
+      <c r="K12">
+        <v>0.04432548345441369</v>
+      </c>
+      <c r="L12">
+        <v>0.06028330536151816</v>
+      </c>
+      <c r="M12">
+        <v>0.1229306221990843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05409034993639673</v>
+        <v>-0.04599142642655467</v>
       </c>
       <c r="C13">
-        <v>-0.01034889263364109</v>
+        <v>0.03016352662090343</v>
       </c>
       <c r="D13">
-        <v>-0.005203467970741235</v>
+        <v>-0.02229591264598072</v>
       </c>
       <c r="E13">
-        <v>-0.01515851305536905</v>
+        <v>0.01178938885525103</v>
       </c>
       <c r="F13">
-        <v>0.05400248293235144</v>
+        <v>-0.04325622200040331</v>
       </c>
       <c r="G13">
-        <v>0.005837544720002078</v>
+        <v>-0.0119307231504915</v>
       </c>
       <c r="H13">
-        <v>0.01303463309471528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.01763007834374136</v>
+      </c>
+      <c r="I13">
+        <v>0.005792827460587609</v>
+      </c>
+      <c r="J13">
+        <v>0.01492099779756602</v>
+      </c>
+      <c r="K13">
+        <v>-0.04131794720070457</v>
+      </c>
+      <c r="L13">
+        <v>0.05131254113137693</v>
+      </c>
+      <c r="M13">
+        <v>-0.03155297686131336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04914557438077573</v>
+        <v>-0.0432818430084016</v>
       </c>
       <c r="C14">
-        <v>-0.02294366241015866</v>
+        <v>0.03086308669950537</v>
       </c>
       <c r="D14">
-        <v>0.02056998634600274</v>
+        <v>0.01118924212218056</v>
       </c>
       <c r="E14">
-        <v>-0.005876362963469694</v>
+        <v>0.01561994279281918</v>
       </c>
       <c r="F14">
-        <v>-0.009892049543874995</v>
+        <v>-0.06988018283369762</v>
       </c>
       <c r="G14">
-        <v>-0.0103313197208966</v>
+        <v>-0.0147429205941265</v>
       </c>
       <c r="H14">
-        <v>-0.07279040655562811</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.04370081824229653</v>
+      </c>
+      <c r="I14">
+        <v>0.01142083670133924</v>
+      </c>
+      <c r="J14">
+        <v>0.07070042742196223</v>
+      </c>
+      <c r="K14">
+        <v>-0.02104564471842851</v>
+      </c>
+      <c r="L14">
+        <v>0.05217414433620367</v>
+      </c>
+      <c r="M14">
+        <v>-0.02450798456458926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.04028332545629943</v>
+        <v>-0.02976619648958884</v>
       </c>
       <c r="C15">
-        <v>0.008572199142592635</v>
+        <v>0.007633916218598269</v>
       </c>
       <c r="D15">
-        <v>-0.00624701631028976</v>
+        <v>-0.05798283801258363</v>
       </c>
       <c r="E15">
-        <v>-0.02120915995268252</v>
+        <v>0.003050657222390443</v>
       </c>
       <c r="F15">
-        <v>0.002066948167572075</v>
+        <v>-0.008886843375209714</v>
       </c>
       <c r="G15">
-        <v>0.01392628707365429</v>
+        <v>0.036728925619467</v>
       </c>
       <c r="H15">
-        <v>-0.01228378085787827</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.04229364763711443</v>
+      </c>
+      <c r="I15">
+        <v>0.02457170626668222</v>
+      </c>
+      <c r="J15">
+        <v>0.04456280142424707</v>
+      </c>
+      <c r="K15">
+        <v>-0.04388134261827765</v>
+      </c>
+      <c r="L15">
+        <v>0.02572340067373213</v>
+      </c>
+      <c r="M15">
+        <v>0.0155681167041389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06070919312660146</v>
+        <v>-0.07312231511165172</v>
       </c>
       <c r="C16">
-        <v>-0.08349665924640712</v>
+        <v>0.07828461182006165</v>
       </c>
       <c r="D16">
-        <v>0.02914650357193928</v>
+        <v>0.02105483812613896</v>
       </c>
       <c r="E16">
-        <v>-0.03932908407159179</v>
+        <v>0.01474931788168983</v>
       </c>
       <c r="F16">
-        <v>0.04190325791651284</v>
+        <v>-0.1153264915958288</v>
       </c>
       <c r="G16">
-        <v>-0.04772221473448209</v>
+        <v>-0.0116672516153666</v>
       </c>
       <c r="H16">
-        <v>0.05950562147609811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.02429910651917109</v>
+      </c>
+      <c r="I16">
+        <v>-0.03993392871757028</v>
+      </c>
+      <c r="J16">
+        <v>-0.06106183341658806</v>
+      </c>
+      <c r="K16">
+        <v>0.04790633544644914</v>
+      </c>
+      <c r="L16">
+        <v>0.06635672291933359</v>
+      </c>
+      <c r="M16">
+        <v>0.09396815483175706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04290393410305544</v>
+        <v>-0.0459212115966172</v>
       </c>
       <c r="C20">
-        <v>-0.04354701673503083</v>
+        <v>0.0316909706781312</v>
       </c>
       <c r="D20">
-        <v>0.007223763222602723</v>
+        <v>-0.02460662037564712</v>
       </c>
       <c r="E20">
-        <v>-0.0215359719558049</v>
+        <v>0.01875430098728563</v>
       </c>
       <c r="F20">
-        <v>0.0259010651661701</v>
+        <v>-0.06609432987243848</v>
       </c>
       <c r="G20">
-        <v>-0.01776010964887055</v>
+        <v>-0.010632109335905</v>
       </c>
       <c r="H20">
-        <v>0.01568390656212315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.01241149838565036</v>
+      </c>
+      <c r="I20">
+        <v>0.002783981861496231</v>
+      </c>
+      <c r="J20">
+        <v>0.03769874093104397</v>
+      </c>
+      <c r="K20">
+        <v>-0.003933776478849457</v>
+      </c>
+      <c r="L20">
+        <v>0.0846335993314352</v>
+      </c>
+      <c r="M20">
+        <v>0.01878903811120153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.01921879814646648</v>
+        <v>-0.02997697123275004</v>
       </c>
       <c r="C21">
-        <v>-0.02750063099517084</v>
+        <v>0.02337737317462435</v>
       </c>
       <c r="D21">
-        <v>0.00205550468792438</v>
+        <v>-0.002192103812224761</v>
       </c>
       <c r="E21">
-        <v>-0.05142429351783463</v>
+        <v>0.02127983194121247</v>
       </c>
       <c r="F21">
-        <v>-0.09183417107891173</v>
+        <v>-0.06074687155974347</v>
       </c>
       <c r="G21">
-        <v>0.0007330209803999916</v>
+        <v>0.09253594265482268</v>
       </c>
       <c r="H21">
-        <v>-0.03258164690964707</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.02789832282225408</v>
+      </c>
+      <c r="I21">
+        <v>-0.05027379452248133</v>
+      </c>
+      <c r="J21">
+        <v>0.04815176593984192</v>
+      </c>
+      <c r="K21">
+        <v>-0.06544626439233464</v>
+      </c>
+      <c r="L21">
+        <v>0.07791046984792925</v>
+      </c>
+      <c r="M21">
+        <v>0.0006357300035655746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01748949483836877</v>
+        <v>-0.04300723677722957</v>
       </c>
       <c r="C22">
-        <v>-0.04332685361142256</v>
+        <v>0.01383121459187119</v>
       </c>
       <c r="D22">
-        <v>-0.1429347041363276</v>
+        <v>-0.6576157361238251</v>
       </c>
       <c r="E22">
-        <v>-0.5131996799928048</v>
+        <v>0.05679330522696519</v>
       </c>
       <c r="F22">
-        <v>0.03548636323525711</v>
+        <v>0.06466185861306868</v>
       </c>
       <c r="G22">
-        <v>0.2939293452058273</v>
+        <v>-0.06838128142551378</v>
       </c>
       <c r="H22">
-        <v>0.1179857739192757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.1063163885272971</v>
+      </c>
+      <c r="I22">
+        <v>-0.09443257525657901</v>
+      </c>
+      <c r="J22">
+        <v>0.009907249950534441</v>
+      </c>
+      <c r="K22">
+        <v>0.02020214972418916</v>
+      </c>
+      <c r="L22">
+        <v>-0.01648480745602089</v>
+      </c>
+      <c r="M22">
+        <v>-0.01337145741783443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01631421702298734</v>
+        <v>-0.04324579895919263</v>
       </c>
       <c r="C23">
-        <v>-0.04149057170448638</v>
+        <v>0.01402347698384245</v>
       </c>
       <c r="D23">
-        <v>-0.1432185368728202</v>
+        <v>-0.6591216543007986</v>
       </c>
       <c r="E23">
-        <v>-0.5118399177015241</v>
+        <v>0.05733836629653695</v>
       </c>
       <c r="F23">
-        <v>0.03488918263260014</v>
+        <v>0.06157524756530226</v>
       </c>
       <c r="G23">
-        <v>0.2938448402209862</v>
+        <v>-0.0691720736505512</v>
       </c>
       <c r="H23">
-        <v>0.1153639684279577</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1069010336022343</v>
+      </c>
+      <c r="I23">
+        <v>-0.0912706650357573</v>
+      </c>
+      <c r="J23">
+        <v>0.01073076561377542</v>
+      </c>
+      <c r="K23">
+        <v>0.02260602869445156</v>
+      </c>
+      <c r="L23">
+        <v>-0.01833212617746746</v>
+      </c>
+      <c r="M23">
+        <v>-0.01478023102962764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07587753951682158</v>
+        <v>-0.0775414323516426</v>
       </c>
       <c r="C24">
-        <v>-0.07648204787454457</v>
+        <v>0.07568810167402355</v>
       </c>
       <c r="D24">
-        <v>0.03732531795581583</v>
+        <v>0.01734446596976741</v>
       </c>
       <c r="E24">
-        <v>-0.04325133222678933</v>
+        <v>0.01763331851444438</v>
       </c>
       <c r="F24">
-        <v>0.02706761399372695</v>
+        <v>-0.1154646300584774</v>
       </c>
       <c r="G24">
-        <v>-0.04615814707949176</v>
+        <v>-0.002565945861725018</v>
       </c>
       <c r="H24">
-        <v>0.04078235221934186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.02727791007990409</v>
+      </c>
+      <c r="I24">
+        <v>-0.03891984985618833</v>
+      </c>
+      <c r="J24">
+        <v>-0.05552524054835206</v>
+      </c>
+      <c r="K24">
+        <v>0.05885852152557121</v>
+      </c>
+      <c r="L24">
+        <v>0.03543435841167859</v>
+      </c>
+      <c r="M24">
+        <v>0.09399203085166245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06840088016098586</v>
+        <v>-0.07491253338225101</v>
       </c>
       <c r="C25">
-        <v>-0.04116705024265702</v>
+        <v>0.05030926698737405</v>
       </c>
       <c r="D25">
-        <v>0.02948186717279541</v>
+        <v>0.03323701626461883</v>
       </c>
       <c r="E25">
-        <v>-0.04997385615046167</v>
+        <v>0.01339458816489756</v>
       </c>
       <c r="F25">
-        <v>0.04318295143727652</v>
+        <v>-0.1251784213377062</v>
       </c>
       <c r="G25">
-        <v>-0.06102117237054704</v>
+        <v>-0.01551351250192701</v>
       </c>
       <c r="H25">
-        <v>0.01458186108673606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.01953673256350093</v>
+      </c>
+      <c r="I25">
+        <v>-0.03752940627410621</v>
+      </c>
+      <c r="J25">
+        <v>-0.05639267514700336</v>
+      </c>
+      <c r="K25">
+        <v>0.08147100632482358</v>
+      </c>
+      <c r="L25">
+        <v>0.03482968962148991</v>
+      </c>
+      <c r="M25">
+        <v>0.09944074222953636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.044230793254722</v>
+        <v>-0.04322613662101639</v>
       </c>
       <c r="C26">
-        <v>-0.03691846749629459</v>
+        <v>0.0220180212033134</v>
       </c>
       <c r="D26">
-        <v>0.0380223828118627</v>
+        <v>-0.01322491118331306</v>
       </c>
       <c r="E26">
-        <v>-0.002167481939003401</v>
+        <v>-0.0008698106145242718</v>
       </c>
       <c r="F26">
-        <v>0.01190609011142218</v>
+        <v>-0.03657438533123097</v>
       </c>
       <c r="G26">
-        <v>0.02766987102959412</v>
+        <v>-0.005604087067048516</v>
       </c>
       <c r="H26">
-        <v>0.008237652533819272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.01338272833168455</v>
+      </c>
+      <c r="I26">
+        <v>-0.03287060461413416</v>
+      </c>
+      <c r="J26">
+        <v>0.07352133113723371</v>
+      </c>
+      <c r="K26">
+        <v>-0.1054175455417419</v>
+      </c>
+      <c r="L26">
+        <v>0.09824704943663053</v>
+      </c>
+      <c r="M26">
+        <v>0.01709137397236506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1078969608231779</v>
+        <v>-0.1436307789195463</v>
       </c>
       <c r="C28">
-        <v>0.2983971907693561</v>
+        <v>-0.2860903704191405</v>
       </c>
       <c r="D28">
-        <v>0.03238164952520971</v>
+        <v>0.01333361263899206</v>
       </c>
       <c r="E28">
-        <v>0.002606539887092924</v>
+        <v>0.02988896728807103</v>
       </c>
       <c r="F28">
-        <v>-0.05714669550582188</v>
+        <v>-0.002912651143065842</v>
       </c>
       <c r="G28">
-        <v>0.01053587679580931</v>
+        <v>0.007793646255249854</v>
       </c>
       <c r="H28">
-        <v>0.04982511093648064</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.01689851783176677</v>
+      </c>
+      <c r="I28">
+        <v>0.01288799756685488</v>
+      </c>
+      <c r="J28">
+        <v>-0.002779017298865189</v>
+      </c>
+      <c r="K28">
+        <v>-0.03432522681992196</v>
+      </c>
+      <c r="L28">
+        <v>0.02381120811743618</v>
+      </c>
+      <c r="M28">
+        <v>-0.02040275830873679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05278515753931646</v>
+        <v>-0.04390388021139627</v>
       </c>
       <c r="C29">
-        <v>-0.01984906095608217</v>
+        <v>0.02834193551496134</v>
       </c>
       <c r="D29">
-        <v>0.006925930991825467</v>
+        <v>0.003279439894420682</v>
       </c>
       <c r="E29">
-        <v>-0.02549740380084139</v>
+        <v>0.01842101534799198</v>
       </c>
       <c r="F29">
-        <v>0.0002787580474329871</v>
+        <v>-0.06301909450700169</v>
       </c>
       <c r="G29">
-        <v>0.0147017981195449</v>
+        <v>-0.02411285778457356</v>
       </c>
       <c r="H29">
-        <v>-0.02212567666408018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.02236035221926677</v>
+      </c>
+      <c r="I29">
+        <v>-0.00019557785514165</v>
+      </c>
+      <c r="J29">
+        <v>0.0652820987787628</v>
+      </c>
+      <c r="K29">
+        <v>-0.01393639064724637</v>
+      </c>
+      <c r="L29">
+        <v>0.05331198481049165</v>
+      </c>
+      <c r="M29">
+        <v>-0.01015243656515944</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1317326482904977</v>
+        <v>-0.0981809088622424</v>
       </c>
       <c r="C30">
-        <v>-0.05226656566230482</v>
+        <v>0.06662522512554804</v>
       </c>
       <c r="D30">
-        <v>0.07016486540117065</v>
+        <v>-0.004029197633910226</v>
       </c>
       <c r="E30">
-        <v>-0.1290987548762384</v>
+        <v>0.03695235085289232</v>
       </c>
       <c r="F30">
-        <v>-0.01949741801531827</v>
+        <v>-0.1948237995356443</v>
       </c>
       <c r="G30">
-        <v>-0.1328850533027548</v>
+        <v>0.007161175397904306</v>
       </c>
       <c r="H30">
-        <v>0.04551278072962014</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.2448321319644279</v>
+      </c>
+      <c r="I30">
+        <v>-0.07113350170428766</v>
+      </c>
+      <c r="J30">
+        <v>0.113049863265892</v>
+      </c>
+      <c r="K30">
+        <v>-0.07174944046118606</v>
+      </c>
+      <c r="L30">
+        <v>0.1197893103269911</v>
+      </c>
+      <c r="M30">
+        <v>-0.399728112516206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.05079532263645244</v>
+        <v>-0.03517950203506856</v>
       </c>
       <c r="C31">
-        <v>-0.02654399615330903</v>
+        <v>0.04702111531533447</v>
       </c>
       <c r="D31">
-        <v>-0.0091541604613956</v>
+        <v>-0.005513638987765458</v>
       </c>
       <c r="E31">
-        <v>0.006214431069684974</v>
+        <v>-0.01019090095418626</v>
       </c>
       <c r="F31">
-        <v>0.01853601598452508</v>
+        <v>-0.02494987267233419</v>
       </c>
       <c r="G31">
-        <v>0.03925766262604968</v>
+        <v>-0.02465899016406962</v>
       </c>
       <c r="H31">
-        <v>8.194690875617491e-06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.03910850504941144</v>
+      </c>
+      <c r="I31">
+        <v>0.0218247096859702</v>
+      </c>
+      <c r="J31">
+        <v>0.009662620937622397</v>
+      </c>
+      <c r="K31">
+        <v>0.005196393580335191</v>
+      </c>
+      <c r="L31">
+        <v>0.03288226533121891</v>
+      </c>
+      <c r="M31">
+        <v>0.001915322464371755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02086714163330342</v>
+        <v>-0.04148616217354615</v>
       </c>
       <c r="C32">
-        <v>0.0212573104860036</v>
+        <v>-0.005080326220645945</v>
       </c>
       <c r="D32">
-        <v>-0.02446007212522665</v>
+        <v>0.01096026556452587</v>
       </c>
       <c r="E32">
-        <v>-0.08441550358505664</v>
+        <v>0.002781941762733502</v>
       </c>
       <c r="F32">
-        <v>0.06710963146609887</v>
+        <v>-0.08923699918065763</v>
       </c>
       <c r="G32">
-        <v>-0.0378869223357266</v>
+        <v>0.02519394585507023</v>
       </c>
       <c r="H32">
-        <v>0.05760383751355368</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.08237223874711332</v>
+      </c>
+      <c r="I32">
+        <v>0.005229020910424571</v>
+      </c>
+      <c r="J32">
+        <v>-0.04313100014933239</v>
+      </c>
+      <c r="K32">
+        <v>-0.04781468885442343</v>
+      </c>
+      <c r="L32">
+        <v>0.02247058402432921</v>
+      </c>
+      <c r="M32">
+        <v>-0.1539025406163191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1025013749183619</v>
+        <v>-0.1000899278372682</v>
       </c>
       <c r="C33">
-        <v>-0.04096357416070734</v>
+        <v>0.06792969735106845</v>
       </c>
       <c r="D33">
-        <v>-0.0003080546624085211</v>
+        <v>0.008615614771678279</v>
       </c>
       <c r="E33">
-        <v>-0.01746585556596905</v>
+        <v>-0.01287242612519304</v>
       </c>
       <c r="F33">
-        <v>0.05125726551608482</v>
+        <v>-0.07909196183095418</v>
       </c>
       <c r="G33">
-        <v>-0.02121434516688436</v>
+        <v>-0.01608009784152348</v>
       </c>
       <c r="H33">
-        <v>0.01437336516601934</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.01065796197668752</v>
+      </c>
+      <c r="I33">
+        <v>-0.02802712599821027</v>
+      </c>
+      <c r="J33">
+        <v>0.05788277452789092</v>
+      </c>
+      <c r="K33">
+        <v>-0.0007986652962642871</v>
+      </c>
+      <c r="L33">
+        <v>0.005684535779821337</v>
+      </c>
+      <c r="M33">
+        <v>0.007560860713341618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05622008714925071</v>
+        <v>-0.06377422520317998</v>
       </c>
       <c r="C34">
-        <v>-0.0804647494147166</v>
+        <v>0.06322063401762257</v>
       </c>
       <c r="D34">
-        <v>0.01941815205245955</v>
+        <v>0.02583086486404847</v>
       </c>
       <c r="E34">
-        <v>-0.03335950062374976</v>
+        <v>0.01032419416847825</v>
       </c>
       <c r="F34">
-        <v>0.02283548289827661</v>
+        <v>-0.1031671825414243</v>
       </c>
       <c r="G34">
-        <v>-0.03564264690218765</v>
+        <v>-0.006072834764050512</v>
       </c>
       <c r="H34">
-        <v>0.02947219538997855</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.001163473766906357</v>
+      </c>
+      <c r="I34">
+        <v>-0.03164774246120654</v>
+      </c>
+      <c r="J34">
+        <v>-0.03658057860135475</v>
+      </c>
+      <c r="K34">
+        <v>0.05633179883711319</v>
+      </c>
+      <c r="L34">
+        <v>0.04323975917896002</v>
+      </c>
+      <c r="M34">
+        <v>0.1223885263642523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04433811775957582</v>
+        <v>-0.02625379136740368</v>
       </c>
       <c r="C35">
-        <v>-0.04100627878589997</v>
+        <v>0.02799432817316512</v>
       </c>
       <c r="D35">
-        <v>0.006422973292847378</v>
+        <v>0.0009035801113815441</v>
       </c>
       <c r="E35">
-        <v>-0.01445164196762952</v>
+        <v>-0.001636319659744543</v>
       </c>
       <c r="F35">
-        <v>0.01182334494333716</v>
+        <v>-0.03415597478509017</v>
       </c>
       <c r="G35">
-        <v>-0.02483186489643239</v>
+        <v>-0.009412808741827296</v>
       </c>
       <c r="H35">
-        <v>0.01252982438662623</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.006960133874114639</v>
+      </c>
+      <c r="I35">
+        <v>-0.03247722608708126</v>
+      </c>
+      <c r="J35">
+        <v>0.002632761313328047</v>
+      </c>
+      <c r="K35">
+        <v>-0.01447749441865101</v>
+      </c>
+      <c r="L35">
+        <v>0.0793463894372685</v>
+      </c>
+      <c r="M35">
+        <v>-0.005957805881648151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03591443665043376</v>
+        <v>-0.02988398995024604</v>
       </c>
       <c r="C36">
-        <v>-0.02057438157077791</v>
+        <v>0.02157039331426721</v>
       </c>
       <c r="D36">
-        <v>0.02343143130924353</v>
+        <v>-0.01356742194580511</v>
       </c>
       <c r="E36">
-        <v>-0.0330343698069873</v>
+        <v>0.01170779217724334</v>
       </c>
       <c r="F36">
-        <v>0.03332294979417966</v>
+        <v>-0.06948552218796714</v>
       </c>
       <c r="G36">
-        <v>-0.01511114772538344</v>
+        <v>-0.001949725802388323</v>
       </c>
       <c r="H36">
-        <v>-0.01350650283432602</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.003312186261080414</v>
+      </c>
+      <c r="I36">
+        <v>-0.002488158863601892</v>
+      </c>
+      <c r="J36">
+        <v>0.04737059431528056</v>
+      </c>
+      <c r="K36">
+        <v>-0.01374919135675156</v>
+      </c>
+      <c r="L36">
+        <v>0.04121814321301902</v>
+      </c>
+      <c r="M36">
+        <v>0.03767402612555476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.0404587215391568</v>
+        <v>-0.02971290118098292</v>
       </c>
       <c r="C38">
-        <v>-0.03288245002127325</v>
+        <v>0.04703072175017316</v>
       </c>
       <c r="D38">
-        <v>-0.02609757286815069</v>
+        <v>-0.02537070264912655</v>
       </c>
       <c r="E38">
-        <v>-0.03509877638626768</v>
+        <v>0.002564455982982371</v>
       </c>
       <c r="F38">
-        <v>0.01485641117041907</v>
+        <v>0.05013395654632316</v>
       </c>
       <c r="G38">
-        <v>-0.009189872388159976</v>
+        <v>-0.05040331538455103</v>
       </c>
       <c r="H38">
-        <v>0.04243476674641506</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.02018479824537234</v>
+      </c>
+      <c r="I38">
+        <v>-0.06601328224573955</v>
+      </c>
+      <c r="J38">
+        <v>0.04956943553192765</v>
+      </c>
+      <c r="K38">
+        <v>-0.1109815760509906</v>
+      </c>
+      <c r="L38">
+        <v>-0.03354321687315525</v>
+      </c>
+      <c r="M38">
+        <v>-0.1043765119113338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09868843487853769</v>
+        <v>-0.1000299783025551</v>
       </c>
       <c r="C39">
-        <v>-0.09702865367462601</v>
+        <v>0.09268744045249372</v>
       </c>
       <c r="D39">
-        <v>0.01589811383746571</v>
+        <v>0.08312695022954195</v>
       </c>
       <c r="E39">
-        <v>-0.03567961672544576</v>
+        <v>-0.01977345329315537</v>
       </c>
       <c r="F39">
-        <v>0.01560099334381373</v>
+        <v>-0.1606098183597341</v>
       </c>
       <c r="G39">
-        <v>-0.08405878344187427</v>
+        <v>-0.07179447057393903</v>
       </c>
       <c r="H39">
-        <v>0.127189991929769</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.1143081361641027</v>
+      </c>
+      <c r="I39">
+        <v>-0.07375454039021151</v>
+      </c>
+      <c r="J39">
+        <v>-0.153544161011434</v>
+      </c>
+      <c r="K39">
+        <v>0.09069453662917024</v>
+      </c>
+      <c r="L39">
+        <v>0.1285515268819027</v>
+      </c>
+      <c r="M39">
+        <v>-0.06733519051014185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.05329798263198052</v>
+        <v>-0.03644955766124338</v>
       </c>
       <c r="C40">
-        <v>-0.04684259515330283</v>
+        <v>0.05799104817671631</v>
       </c>
       <c r="D40">
-        <v>-0.05578500705579898</v>
+        <v>-0.0493587813640692</v>
       </c>
       <c r="E40">
-        <v>-0.1434895112744857</v>
+        <v>-0.00270327343432738</v>
       </c>
       <c r="F40">
-        <v>0.06345776543062563</v>
+        <v>-0.114856688507623</v>
       </c>
       <c r="G40">
-        <v>-0.07908047945807148</v>
+        <v>0.07449109030663434</v>
       </c>
       <c r="H40">
-        <v>0.1262776475935398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.008773167793202202</v>
+      </c>
+      <c r="I40">
+        <v>-0.1163867798128129</v>
+      </c>
+      <c r="J40">
+        <v>0.02055198476111715</v>
+      </c>
+      <c r="K40">
+        <v>-0.1337434120661458</v>
+      </c>
+      <c r="L40">
+        <v>-0.009367160930546832</v>
+      </c>
+      <c r="M40">
+        <v>-0.03368877195355505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04637755697462728</v>
+        <v>-0.03828227022481565</v>
       </c>
       <c r="C41">
-        <v>-0.04957374507072702</v>
+        <v>0.03571189311033951</v>
       </c>
       <c r="D41">
-        <v>0.009789571376378321</v>
+        <v>0.0163623773475144</v>
       </c>
       <c r="E41">
-        <v>-0.001952812787855024</v>
+        <v>-0.001382034109615558</v>
       </c>
       <c r="F41">
-        <v>0.0272568612817504</v>
+        <v>-0.01754702189833798</v>
       </c>
       <c r="G41">
-        <v>-0.008906667446090904</v>
+        <v>-0.02764503852014807</v>
       </c>
       <c r="H41">
-        <v>0.0330332217444043</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.005583465720109045</v>
+      </c>
+      <c r="I41">
+        <v>-0.01242952162077826</v>
+      </c>
+      <c r="J41">
+        <v>0.001516524127472579</v>
+      </c>
+      <c r="K41">
+        <v>-0.03886353601155657</v>
+      </c>
+      <c r="L41">
+        <v>0.02761253713253228</v>
+      </c>
+      <c r="M41">
+        <v>0.03194071962799751</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.06027617452509389</v>
+        <v>-0.05261488833372711</v>
       </c>
       <c r="C43">
-        <v>-0.03879295890542977</v>
+        <v>0.04478107539983052</v>
       </c>
       <c r="D43">
-        <v>0.02695283377968383</v>
+        <v>-0.01371093649986223</v>
       </c>
       <c r="E43">
-        <v>-0.03649666188320831</v>
+        <v>0.01145140953552372</v>
       </c>
       <c r="F43">
-        <v>0.005920970606285629</v>
+        <v>-0.01464189167847713</v>
       </c>
       <c r="G43">
-        <v>0.01561785804611778</v>
+        <v>-0.05154736085020459</v>
       </c>
       <c r="H43">
-        <v>0.01479060418322516</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.01734980917601969</v>
+      </c>
+      <c r="I43">
+        <v>0.002868539151908633</v>
+      </c>
+      <c r="J43">
+        <v>-0.007261276791965918</v>
+      </c>
+      <c r="K43">
+        <v>-0.01013222053664576</v>
+      </c>
+      <c r="L43">
+        <v>0.03303539732024219</v>
+      </c>
+      <c r="M43">
+        <v>0.02347816403496103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05193180422177258</v>
+        <v>-0.08311437931772185</v>
       </c>
       <c r="C44">
-        <v>-0.009828559955098078</v>
+        <v>0.058185882046236</v>
       </c>
       <c r="D44">
-        <v>0.06699998032406657</v>
+        <v>-0.07132710297477896</v>
       </c>
       <c r="E44">
-        <v>-0.1274819980565992</v>
+        <v>0.1025310470123121</v>
       </c>
       <c r="F44">
-        <v>0.03584189436401534</v>
+        <v>-0.16578169610282</v>
       </c>
       <c r="G44">
-        <v>-0.1171827027860689</v>
+        <v>-0.003084762115725362</v>
       </c>
       <c r="H44">
-        <v>0.02205594635015061</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.01858164650077367</v>
+      </c>
+      <c r="I44">
+        <v>-0.1010119654103453</v>
+      </c>
+      <c r="J44">
+        <v>-0.0001187677154058447</v>
+      </c>
+      <c r="K44">
+        <v>-0.02465034722693764</v>
+      </c>
+      <c r="L44">
+        <v>0.03204057329591348</v>
+      </c>
+      <c r="M44">
+        <v>-0.08429490494337086</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02180931785013104</v>
+        <v>-0.03222836717467676</v>
       </c>
       <c r="C46">
-        <v>-0.04378069865701673</v>
+        <v>0.03918668175287488</v>
       </c>
       <c r="D46">
-        <v>0.01071690867532457</v>
+        <v>-0.04084087250796432</v>
       </c>
       <c r="E46">
-        <v>-0.03825188424234535</v>
+        <v>0.03684303744746061</v>
       </c>
       <c r="F46">
-        <v>0.006878376915960133</v>
+        <v>-0.0363060831288252</v>
       </c>
       <c r="G46">
-        <v>0.009589134311003472</v>
+        <v>0.0174850672244772</v>
       </c>
       <c r="H46">
-        <v>0.008221811972516561</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.05020901605399266</v>
+      </c>
+      <c r="I46">
+        <v>-0.003749263896144726</v>
+      </c>
+      <c r="J46">
+        <v>0.07649331597002573</v>
+      </c>
+      <c r="K46">
+        <v>-0.03522512919923826</v>
+      </c>
+      <c r="L46">
+        <v>0.07066733094908792</v>
+      </c>
+      <c r="M46">
+        <v>0.01635311902103637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02839640237382711</v>
+        <v>-0.04639965836198672</v>
       </c>
       <c r="C47">
-        <v>-0.001255865404078808</v>
+        <v>0.02872136020526462</v>
       </c>
       <c r="D47">
-        <v>-0.01821891827803933</v>
+        <v>-0.01918423901710223</v>
       </c>
       <c r="E47">
-        <v>-0.07146051390609548</v>
+        <v>0.007747651641719142</v>
       </c>
       <c r="F47">
-        <v>0.02577031666398179</v>
+        <v>-0.0456100709662232</v>
       </c>
       <c r="G47">
-        <v>-0.006114468902957693</v>
+        <v>-0.01589114403907535</v>
       </c>
       <c r="H47">
-        <v>-0.04124076569737573</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.006195359590818914</v>
+      </c>
+      <c r="I47">
+        <v>-0.01320241264264916</v>
+      </c>
+      <c r="J47">
+        <v>0.05455309517016864</v>
+      </c>
+      <c r="K47">
+        <v>-0.0007695852907171794</v>
+      </c>
+      <c r="L47">
+        <v>0.02642429347833873</v>
+      </c>
+      <c r="M47">
+        <v>0.04697339466341222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03318346829473926</v>
+        <v>-0.04186596492172572</v>
       </c>
       <c r="C48">
-        <v>-0.02795352451527194</v>
+        <v>0.02055826458906794</v>
       </c>
       <c r="D48">
-        <v>0.001342005211585147</v>
+        <v>-0.01142622726856002</v>
       </c>
       <c r="E48">
-        <v>-0.05299077961554149</v>
+        <v>0.001553499625009482</v>
       </c>
       <c r="F48">
-        <v>0.02608079759326458</v>
+        <v>-0.07389003740268725</v>
       </c>
       <c r="G48">
-        <v>0.02633708470076656</v>
+        <v>0.03871094733587353</v>
       </c>
       <c r="H48">
-        <v>0.004866125564514994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.003360499888150964</v>
+      </c>
+      <c r="I48">
+        <v>0.002871955066122445</v>
+      </c>
+      <c r="J48">
+        <v>0.02288485056902803</v>
+      </c>
+      <c r="K48">
+        <v>0.001515585703104242</v>
+      </c>
+      <c r="L48">
+        <v>0.07582496537620829</v>
+      </c>
+      <c r="M48">
+        <v>0.02385536728859488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2037810491899598</v>
+        <v>-0.2255322630093078</v>
       </c>
       <c r="C49">
-        <v>-0.1172764546479262</v>
+        <v>0.07619438664735347</v>
       </c>
       <c r="D49">
-        <v>0.07994930335556606</v>
+        <v>0.05432284444244777</v>
       </c>
       <c r="E49">
-        <v>0.05773684193096781</v>
+        <v>0.03140374051422457</v>
       </c>
       <c r="F49">
-        <v>-0.1923574643364755</v>
+        <v>0.2481594437247258</v>
       </c>
       <c r="G49">
-        <v>-0.02986428539913098</v>
+        <v>0.1396991758524365</v>
       </c>
       <c r="H49">
-        <v>0.008758827951017976</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.05469571012378242</v>
+      </c>
+      <c r="I49">
+        <v>-0.1463682504760379</v>
+      </c>
+      <c r="J49">
+        <v>-0.09982897355610816</v>
+      </c>
+      <c r="K49">
+        <v>0.1418600080505711</v>
+      </c>
+      <c r="L49">
+        <v>-0.07591252731848623</v>
+      </c>
+      <c r="M49">
+        <v>0.1032774716102025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.0560467698070307</v>
+        <v>-0.04334417300084258</v>
       </c>
       <c r="C50">
-        <v>-0.0267966830983278</v>
+        <v>0.04369345369177435</v>
       </c>
       <c r="D50">
-        <v>-0.004817127446282535</v>
+        <v>-0.003119377390537242</v>
       </c>
       <c r="E50">
-        <v>-0.02406957461724947</v>
+        <v>-0.01292057218499465</v>
       </c>
       <c r="F50">
-        <v>0.04949837267315044</v>
+        <v>-0.04822455118773473</v>
       </c>
       <c r="G50">
-        <v>0.04198696069216828</v>
+        <v>-0.03180911769308437</v>
       </c>
       <c r="H50">
-        <v>-0.03333003769475013</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.02060073698722827</v>
+      </c>
+      <c r="I50">
+        <v>0.01534121478971959</v>
+      </c>
+      <c r="J50">
+        <v>0.058034428119408</v>
+      </c>
+      <c r="K50">
+        <v>-0.01065043489438517</v>
+      </c>
+      <c r="L50">
+        <v>0.02612571542298157</v>
+      </c>
+      <c r="M50">
+        <v>-0.0207181084167298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.03034437838903395</v>
+        <v>-0.02930674286494172</v>
       </c>
       <c r="C51">
-        <v>-0.01152645184718555</v>
+        <v>0.00534506147524032</v>
       </c>
       <c r="D51">
-        <v>-0.0001791346612554309</v>
+        <v>0.001638402090220928</v>
       </c>
       <c r="E51">
-        <v>-0.01210435596200167</v>
+        <v>0.01897286889462002</v>
       </c>
       <c r="F51">
-        <v>-0.003544514793650822</v>
+        <v>0.01702384802819377</v>
       </c>
       <c r="G51">
-        <v>-0.01753585607503102</v>
+        <v>-0.009321924738240726</v>
       </c>
       <c r="H51">
-        <v>0.01488924124465698</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.01823109100983599</v>
+      </c>
+      <c r="I51">
+        <v>-0.009291244680880681</v>
+      </c>
+      <c r="J51">
+        <v>-0.05631277433258474</v>
+      </c>
+      <c r="K51">
+        <v>0.06843601215545736</v>
+      </c>
+      <c r="L51">
+        <v>-0.01757385199473373</v>
+      </c>
+      <c r="M51">
+        <v>-0.007208265352265426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.0209683244877204</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.01023176614994093</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01285562215127389</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.004363675197561685</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.008903905232791762</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.02025641158151207</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.000218691999306057</v>
+      </c>
+      <c r="I52">
+        <v>0.006133566474793968</v>
+      </c>
+      <c r="J52">
+        <v>-0.01409877458022954</v>
+      </c>
+      <c r="K52">
+        <v>-0.005423384370852469</v>
+      </c>
+      <c r="L52">
+        <v>0.008987840594540072</v>
+      </c>
+      <c r="M52">
+        <v>-0.0268823143775885</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1695687998813448</v>
+        <v>-0.1557946584918636</v>
       </c>
       <c r="C53">
-        <v>-0.01008405871711378</v>
+        <v>0.04894455760593514</v>
       </c>
       <c r="D53">
-        <v>0.02053860855892682</v>
+        <v>0.009420530996724163</v>
       </c>
       <c r="E53">
-        <v>0.0764653896310237</v>
+        <v>-0.007026468298740761</v>
       </c>
       <c r="F53">
-        <v>0.2651732602402929</v>
+        <v>0.05181350593700924</v>
       </c>
       <c r="G53">
-        <v>0.01715745483883685</v>
+        <v>-0.2367650335912077</v>
       </c>
       <c r="H53">
-        <v>-0.02365325292475576</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.1179346240575218</v>
+      </c>
+      <c r="I53">
+        <v>0.02821871432307837</v>
+      </c>
+      <c r="J53">
+        <v>0.07592455670595132</v>
+      </c>
+      <c r="K53">
+        <v>0.006846191035566634</v>
+      </c>
+      <c r="L53">
+        <v>-0.07915830076775944</v>
+      </c>
+      <c r="M53">
+        <v>-0.1051431690177326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04687527759146093</v>
+        <v>-0.05804872529235628</v>
       </c>
       <c r="C54">
-        <v>-0.0303450370582969</v>
+        <v>0.03571169689847967</v>
       </c>
       <c r="D54">
-        <v>0.02692965358525954</v>
+        <v>-0.01587175101919887</v>
       </c>
       <c r="E54">
-        <v>-0.04995171407445672</v>
+        <v>0.02773929584289293</v>
       </c>
       <c r="F54">
-        <v>0.01471288729373013</v>
+        <v>-0.120191829864131</v>
       </c>
       <c r="G54">
-        <v>-0.001037172482590992</v>
+        <v>0.03245315427212575</v>
       </c>
       <c r="H54">
-        <v>0.001137287287429788</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.03730138987518422</v>
+      </c>
+      <c r="I54">
+        <v>0.05877625205303488</v>
+      </c>
+      <c r="J54">
+        <v>0.06890257999041403</v>
+      </c>
+      <c r="K54">
+        <v>-0.07871521970047361</v>
+      </c>
+      <c r="L54">
+        <v>0.07984257608009755</v>
+      </c>
+      <c r="M54">
+        <v>0.03034248738595951</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09173173449083917</v>
+        <v>-0.08702753578210802</v>
       </c>
       <c r="C55">
-        <v>-0.0008223091797334428</v>
+        <v>0.04172789178351025</v>
       </c>
       <c r="D55">
-        <v>0.01255944825002037</v>
+        <v>0.02687736299201871</v>
       </c>
       <c r="E55">
-        <v>0.01761780012312235</v>
+        <v>0.002760866191058743</v>
       </c>
       <c r="F55">
-        <v>0.2293332362179715</v>
+        <v>-0.0202595037296128</v>
       </c>
       <c r="G55">
-        <v>0.02656916343945551</v>
+        <v>-0.1524049279598734</v>
       </c>
       <c r="H55">
-        <v>-0.04194782073661236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.0896440403076621</v>
+      </c>
+      <c r="I55">
+        <v>0.0183722331299962</v>
+      </c>
+      <c r="J55">
+        <v>0.05674101744015243</v>
+      </c>
+      <c r="K55">
+        <v>0.01699772360202541</v>
+      </c>
+      <c r="L55">
+        <v>-0.04806813328334705</v>
+      </c>
+      <c r="M55">
+        <v>-0.01714918732189378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1627956165925464</v>
+        <v>-0.1492452833802838</v>
       </c>
       <c r="C56">
-        <v>-0.0110820176313825</v>
+        <v>0.07255669703753162</v>
       </c>
       <c r="D56">
-        <v>0.03688795834207004</v>
+        <v>0.02933181448190238</v>
       </c>
       <c r="E56">
-        <v>0.07130850459602754</v>
+        <v>0.01044121983823773</v>
       </c>
       <c r="F56">
-        <v>0.2457155781383851</v>
+        <v>0.02674954124896646</v>
       </c>
       <c r="G56">
-        <v>0.06603409784374228</v>
+        <v>-0.2279956585839194</v>
       </c>
       <c r="H56">
-        <v>-0.03131613345054783</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1051600746924673</v>
+      </c>
+      <c r="I56">
+        <v>0.01917224519078018</v>
+      </c>
+      <c r="J56">
+        <v>0.05843682500800735</v>
+      </c>
+      <c r="K56">
+        <v>-0.02485077049225648</v>
+      </c>
+      <c r="L56">
+        <v>-0.09536344297716752</v>
+      </c>
+      <c r="M56">
+        <v>-0.05061328846215175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1102 +3040,1747 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.03812015224544315</v>
+        <v>-0.03473327776925133</v>
       </c>
       <c r="C58">
-        <v>-0.02439155610644786</v>
+        <v>0.03314046018680722</v>
       </c>
       <c r="D58">
-        <v>-0.006365629300850792</v>
+        <v>-0.08290570984742456</v>
       </c>
       <c r="E58">
-        <v>-0.3429332929633288</v>
+        <v>0.01442028550490912</v>
       </c>
       <c r="F58">
-        <v>-0.1517313588579396</v>
+        <v>-0.05747730820972376</v>
       </c>
       <c r="G58">
-        <v>0.03199813220011671</v>
+        <v>0.075056117697348</v>
       </c>
       <c r="H58">
-        <v>-0.1843660536979298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1261156785648595</v>
+      </c>
+      <c r="I58">
+        <v>0.0720936260043922</v>
+      </c>
+      <c r="J58">
+        <v>-0.08417144317849452</v>
+      </c>
+      <c r="K58">
+        <v>0.3046286672854351</v>
+      </c>
+      <c r="L58">
+        <v>0.3575588381486494</v>
+      </c>
+      <c r="M58">
+        <v>0.03940017888066531</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2349998999765193</v>
+        <v>-0.2269158480662339</v>
       </c>
       <c r="C59">
-        <v>0.4127636375585417</v>
+        <v>-0.2994320156194765</v>
       </c>
       <c r="D59">
-        <v>0.02499569982059694</v>
+        <v>0.04969275310894548</v>
       </c>
       <c r="E59">
-        <v>-0.006633273959753115</v>
+        <v>0.008341502845088939</v>
       </c>
       <c r="F59">
-        <v>0.05336138950147915</v>
+        <v>-0.02977652777516751</v>
       </c>
       <c r="G59">
-        <v>-0.04085185596742646</v>
+        <v>-0.07994527959217698</v>
       </c>
       <c r="H59">
-        <v>0.07682401918045306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.05670066550109767</v>
+      </c>
+      <c r="I59">
+        <v>0.02761888720049769</v>
+      </c>
+      <c r="J59">
+        <v>-0.1053165440524366</v>
+      </c>
+      <c r="K59">
+        <v>-0.0257787466313243</v>
+      </c>
+      <c r="L59">
+        <v>-0.07676255805375605</v>
+      </c>
+      <c r="M59">
+        <v>-0.03209920639730064</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2527875162700942</v>
+        <v>-0.2420506604047227</v>
       </c>
       <c r="C60">
-        <v>-0.06785149159350373</v>
+        <v>0.1179975225707137</v>
       </c>
       <c r="D60">
-        <v>0.09239124754223846</v>
+        <v>0.06356613789405449</v>
       </c>
       <c r="E60">
-        <v>-0.004879321008742226</v>
+        <v>0.04809186118266853</v>
       </c>
       <c r="F60">
-        <v>-0.05041308025583872</v>
+        <v>0.1082655940239537</v>
       </c>
       <c r="G60">
-        <v>0.01743923707714962</v>
+        <v>0.04543165647836245</v>
       </c>
       <c r="H60">
-        <v>-0.08020495122114923</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.08173676402057457</v>
+      </c>
+      <c r="I60">
+        <v>0.03184677916027588</v>
+      </c>
+      <c r="J60">
+        <v>0.04644993189930759</v>
+      </c>
+      <c r="K60">
+        <v>0.1346522646261093</v>
+      </c>
+      <c r="L60">
+        <v>-0.1891312439323536</v>
+      </c>
+      <c r="M60">
+        <v>-0.05491755914077411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08516411605039637</v>
+        <v>-0.09267594274725538</v>
       </c>
       <c r="C61">
-        <v>-0.06166548641689949</v>
+        <v>0.06781444914249397</v>
       </c>
       <c r="D61">
-        <v>0.01393987429868018</v>
+        <v>0.04650518698039006</v>
       </c>
       <c r="E61">
-        <v>-0.008212262348910003</v>
+        <v>0.01275572088367048</v>
       </c>
       <c r="F61">
-        <v>0.01775875022511113</v>
+        <v>-0.128110055799132</v>
       </c>
       <c r="G61">
-        <v>-0.01252083795789224</v>
+        <v>-0.07043577422251653</v>
       </c>
       <c r="H61">
-        <v>0.06870803411842086</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.03055927937482798</v>
+      </c>
+      <c r="I61">
+        <v>-0.0441468276220416</v>
+      </c>
+      <c r="J61">
+        <v>-0.05901025786319423</v>
+      </c>
+      <c r="K61">
+        <v>0.01217105426187111</v>
+      </c>
+      <c r="L61">
+        <v>0.07922510055601337</v>
+      </c>
+      <c r="M61">
+        <v>-0.008708950506544287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1600912019494308</v>
+        <v>-0.1405594090971393</v>
       </c>
       <c r="C62">
-        <v>-0.04752259365534765</v>
+        <v>0.0718333971755569</v>
       </c>
       <c r="D62">
-        <v>0.00106807904339296</v>
+        <v>0.02651263002997645</v>
       </c>
       <c r="E62">
-        <v>0.1346725764825013</v>
+        <v>-0.03652078506025328</v>
       </c>
       <c r="F62">
-        <v>0.234240043025546</v>
+        <v>0.0362349781885347</v>
       </c>
       <c r="G62">
-        <v>-0.003784877189316364</v>
+        <v>-0.1697447357745707</v>
       </c>
       <c r="H62">
-        <v>0.02086119095105327</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.1318839979852298</v>
+      </c>
+      <c r="I62">
+        <v>-0.003976075518791922</v>
+      </c>
+      <c r="J62">
+        <v>0.106402033821404</v>
+      </c>
+      <c r="K62">
+        <v>-0.05433499452570782</v>
+      </c>
+      <c r="L62">
+        <v>-0.08935625621910827</v>
+      </c>
+      <c r="M62">
+        <v>0.01070765383128416</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.0395118617020893</v>
+        <v>-0.04587144551219811</v>
       </c>
       <c r="C63">
-        <v>-0.04234109119124565</v>
+        <v>0.03040181088632597</v>
       </c>
       <c r="D63">
-        <v>0.002873289465404545</v>
+        <v>0.008212417094462306</v>
       </c>
       <c r="E63">
-        <v>0.0002973718849100227</v>
+        <v>-0.01305275852233125</v>
       </c>
       <c r="F63">
-        <v>0.02471010338181863</v>
+        <v>-0.06931464993606171</v>
       </c>
       <c r="G63">
-        <v>-0.00932596467879652</v>
+        <v>-0.002216293054222498</v>
       </c>
       <c r="H63">
-        <v>-0.04416019801100607</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.003812410437377931</v>
+      </c>
+      <c r="I63">
+        <v>0.002799318015561265</v>
+      </c>
+      <c r="J63">
+        <v>0.03897235638271466</v>
+      </c>
+      <c r="K63">
+        <v>0.01180726303099521</v>
+      </c>
+      <c r="L63">
+        <v>0.04685878536890354</v>
+      </c>
+      <c r="M63">
+        <v>0.02026953805742394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1037588238779799</v>
+        <v>-0.0991020876225723</v>
       </c>
       <c r="C64">
-        <v>-0.0261171858828726</v>
+        <v>0.04569591074057207</v>
       </c>
       <c r="D64">
-        <v>0.03215734494028183</v>
+        <v>-0.004921998871558266</v>
       </c>
       <c r="E64">
-        <v>-0.0461254306396718</v>
+        <v>0.0386188931373652</v>
       </c>
       <c r="F64">
-        <v>-0.02090691370727387</v>
+        <v>-0.06793068347377089</v>
       </c>
       <c r="G64">
-        <v>-0.04056105430959353</v>
+        <v>0.004417982774630668</v>
       </c>
       <c r="H64">
-        <v>0.03992629915031193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.07186543430176344</v>
+      </c>
+      <c r="I64">
+        <v>-0.02467700014457872</v>
+      </c>
+      <c r="J64">
+        <v>0.007840759023360202</v>
+      </c>
+      <c r="K64">
+        <v>-0.007982965415251658</v>
+      </c>
+      <c r="L64">
+        <v>0.03628240900606652</v>
+      </c>
+      <c r="M64">
+        <v>-0.0259591703157341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.125615087290979</v>
+        <v>-0.1235386238564678</v>
       </c>
       <c r="C65">
-        <v>-0.05038550109634787</v>
+        <v>0.04561116095697962</v>
       </c>
       <c r="D65">
-        <v>0.03838752640509249</v>
+        <v>0.005433568784045347</v>
       </c>
       <c r="E65">
-        <v>-0.08414321861769858</v>
+        <v>-0.02203137632685346</v>
       </c>
       <c r="F65">
-        <v>-0.1319861612073938</v>
+        <v>-0.01652494311922269</v>
       </c>
       <c r="G65">
-        <v>-0.004483901624999401</v>
+        <v>0.2240910238855154</v>
       </c>
       <c r="H65">
-        <v>-0.686893304243961</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.2050246544275353</v>
+      </c>
+      <c r="I65">
+        <v>0.3597701476927072</v>
+      </c>
+      <c r="J65">
+        <v>0.4957190849743201</v>
+      </c>
+      <c r="K65">
+        <v>0.17937182878664</v>
+      </c>
+      <c r="L65">
+        <v>-0.1419337473970728</v>
+      </c>
+      <c r="M65">
+        <v>-0.1129978274301038</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.155375974030928</v>
+        <v>-0.1266138359967703</v>
       </c>
       <c r="C66">
-        <v>-0.131727268126663</v>
+        <v>0.1310980192411721</v>
       </c>
       <c r="D66">
-        <v>0.02899329879014039</v>
+        <v>0.09864366153925112</v>
       </c>
       <c r="E66">
-        <v>0.002892408521092393</v>
+        <v>-0.03598976003972119</v>
       </c>
       <c r="F66">
-        <v>0.03419624142142837</v>
+        <v>-0.1628927026180056</v>
       </c>
       <c r="G66">
-        <v>-0.1685330059278732</v>
+        <v>-0.07626822858780602</v>
       </c>
       <c r="H66">
-        <v>0.2693511756227576</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1033993971793627</v>
+      </c>
+      <c r="I66">
+        <v>-0.1437236984129775</v>
+      </c>
+      <c r="J66">
+        <v>-0.1849544343366294</v>
+      </c>
+      <c r="K66">
+        <v>0.06300414595518368</v>
+      </c>
+      <c r="L66">
+        <v>0.08445998525038433</v>
+      </c>
+      <c r="M66">
+        <v>-0.1243271334619475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07844168668706876</v>
+        <v>-0.07981943323486074</v>
       </c>
       <c r="C67">
-        <v>-0.05011649735982594</v>
+        <v>0.05880725338966322</v>
       </c>
       <c r="D67">
-        <v>0.002614961407593724</v>
+        <v>-0.02123180564381236</v>
       </c>
       <c r="E67">
-        <v>-0.0054143445762203</v>
+        <v>0.02013832317914468</v>
       </c>
       <c r="F67">
-        <v>-0.002046291743663799</v>
+        <v>0.05416339671322479</v>
       </c>
       <c r="G67">
-        <v>-0.004626320711720655</v>
+        <v>-0.08783669712474602</v>
       </c>
       <c r="H67">
-        <v>0.05738960154620958</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.04737708562261955</v>
+      </c>
+      <c r="I67">
+        <v>-0.0720717656635277</v>
+      </c>
+      <c r="J67">
+        <v>-0.00996461041055011</v>
+      </c>
+      <c r="K67">
+        <v>-0.1105318739018283</v>
+      </c>
+      <c r="L67">
+        <v>-0.08483573437012122</v>
+      </c>
+      <c r="M67">
+        <v>-0.07705326611853959</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.09553693607561853</v>
+        <v>-0.1218580316308044</v>
       </c>
       <c r="C68">
-        <v>0.2804689090546544</v>
+        <v>-0.2742038381352312</v>
       </c>
       <c r="D68">
-        <v>-0.008417407962034225</v>
+        <v>0.01046360492205686</v>
       </c>
       <c r="E68">
-        <v>-0.01494357031267476</v>
+        <v>0.002030769152095266</v>
       </c>
       <c r="F68">
-        <v>0.0283678384262747</v>
+        <v>-0.03784581585606174</v>
       </c>
       <c r="G68">
-        <v>0.03202467746896341</v>
+        <v>-0.0245043054430716</v>
       </c>
       <c r="H68">
-        <v>-0.0176286611914215</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.01533594823685884</v>
+      </c>
+      <c r="I68">
+        <v>0.03291467500833147</v>
+      </c>
+      <c r="J68">
+        <v>0.05369089183707292</v>
+      </c>
+      <c r="K68">
+        <v>0.01894322932434548</v>
+      </c>
+      <c r="L68">
+        <v>0.02599875819257387</v>
+      </c>
+      <c r="M68">
+        <v>-0.03317052528672158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.0412392205330048</v>
+        <v>-0.04268614532420936</v>
       </c>
       <c r="C69">
-        <v>-0.03059513534645035</v>
+        <v>0.02144627873418459</v>
       </c>
       <c r="D69">
-        <v>0.005323767063741311</v>
+        <v>-0.007525630503473147</v>
       </c>
       <c r="E69">
-        <v>-0.01991559419333283</v>
+        <v>-0.00124169173121579</v>
       </c>
       <c r="F69">
-        <v>0.03246879463292658</v>
+        <v>-0.01877262587939073</v>
       </c>
       <c r="G69">
-        <v>-0.03023920525281034</v>
+        <v>-0.02418852939056025</v>
       </c>
       <c r="H69">
-        <v>-0.007915478268820159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01389150991274334</v>
+      </c>
+      <c r="I69">
+        <v>-0.0135323951441972</v>
+      </c>
+      <c r="J69">
+        <v>0.01686938335417175</v>
+      </c>
+      <c r="K69">
+        <v>-0.00466234198635907</v>
+      </c>
+      <c r="L69">
+        <v>-0.006226358185390989</v>
+      </c>
+      <c r="M69">
+        <v>0.0815922871276195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.05209774932177568</v>
+        <v>-0.05275696017569406</v>
       </c>
       <c r="C70">
-        <v>0.005716337712122556</v>
+        <v>0.03312478309713003</v>
       </c>
       <c r="D70">
-        <v>0.04041421850735145</v>
+        <v>0.02297083273587816</v>
       </c>
       <c r="E70">
-        <v>0.005716620010695346</v>
+        <v>0.0223706987908283</v>
       </c>
       <c r="F70">
-        <v>-0.1015089601911948</v>
+        <v>0.006112754279741544</v>
       </c>
       <c r="G70">
-        <v>0.06008467108055402</v>
+        <v>0.07163123520071242</v>
       </c>
       <c r="H70">
-        <v>0.02500169360390391</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.01382180537487551</v>
+      </c>
+      <c r="I70">
+        <v>0.01999181132669278</v>
+      </c>
+      <c r="J70">
+        <v>0.1293953979561543</v>
+      </c>
+      <c r="K70">
+        <v>-0.2678650147982573</v>
+      </c>
+      <c r="L70">
+        <v>0.1020628025511282</v>
+      </c>
+      <c r="M70">
+        <v>0.1095094278081655</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1010065706839188</v>
+        <v>-0.1362821002554465</v>
       </c>
       <c r="C71">
-        <v>0.2822163675932277</v>
+        <v>-0.282544062264242</v>
       </c>
       <c r="D71">
-        <v>0.02490325931003698</v>
+        <v>0.01488353584020924</v>
       </c>
       <c r="E71">
-        <v>-0.005910873596379028</v>
+        <v>0.01925776274956033</v>
       </c>
       <c r="F71">
-        <v>0.001100164686700811</v>
+        <v>-0.03724977361172477</v>
       </c>
       <c r="G71">
-        <v>0.0126690648667043</v>
+        <v>-0.02531836001098472</v>
       </c>
       <c r="H71">
-        <v>0.006886489304149297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.02790526557084578</v>
+      </c>
+      <c r="I71">
+        <v>-0.003097062106555372</v>
+      </c>
+      <c r="J71">
+        <v>0.02464814737321235</v>
+      </c>
+      <c r="K71">
+        <v>0.01725261422821134</v>
+      </c>
+      <c r="L71">
+        <v>0.01239555400336482</v>
+      </c>
+      <c r="M71">
+        <v>-0.0196773320958165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1797509321000709</v>
+        <v>-0.143047429135811</v>
       </c>
       <c r="C72">
-        <v>-0.03487542868367851</v>
+        <v>0.02986877305641156</v>
       </c>
       <c r="D72">
-        <v>-0.2407469042607594</v>
+        <v>-0.008960018270865967</v>
       </c>
       <c r="E72">
-        <v>0.05772650322018375</v>
+        <v>-0.1871895916524365</v>
       </c>
       <c r="F72">
-        <v>0.01719864278083678</v>
+        <v>-0.03686163118754083</v>
       </c>
       <c r="G72">
-        <v>-0.09095029374022819</v>
+        <v>-0.01470402157786247</v>
       </c>
       <c r="H72">
-        <v>-0.1012831762983005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.02199134917766389</v>
+      </c>
+      <c r="I72">
+        <v>0.0479105724417677</v>
+      </c>
+      <c r="J72">
+        <v>0.07510047478981181</v>
+      </c>
+      <c r="K72">
+        <v>0.01784913508188033</v>
+      </c>
+      <c r="L72">
+        <v>-0.137535333040008</v>
+      </c>
+      <c r="M72">
+        <v>-0.009194565943886566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2778126066842892</v>
+        <v>-0.2427047032351989</v>
       </c>
       <c r="C73">
-        <v>-0.1851511531462282</v>
+        <v>0.149339504810422</v>
       </c>
       <c r="D73">
-        <v>0.1189378511337695</v>
+        <v>0.1411346712119913</v>
       </c>
       <c r="E73">
-        <v>0.04084397600663611</v>
+        <v>0.08444702030128619</v>
       </c>
       <c r="F73">
-        <v>-0.1793913029669874</v>
+        <v>0.4505893601183381</v>
       </c>
       <c r="G73">
-        <v>-0.003691475162047042</v>
+        <v>0.09917568042367111</v>
       </c>
       <c r="H73">
-        <v>-0.1637637719384022</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2835731863717276</v>
+      </c>
+      <c r="I73">
+        <v>-0.2253049256283917</v>
+      </c>
+      <c r="J73">
+        <v>-0.173609962935263</v>
+      </c>
+      <c r="K73">
+        <v>0.2860339379007762</v>
+      </c>
+      <c r="L73">
+        <v>-0.09606814079020161</v>
+      </c>
+      <c r="M73">
+        <v>-0.120836445667377</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09519409759329543</v>
+        <v>-0.09389062627489803</v>
       </c>
       <c r="C74">
-        <v>-0.04112240483421482</v>
+        <v>0.07287974245287934</v>
       </c>
       <c r="D74">
-        <v>0.003127533011287397</v>
+        <v>0.005592101038348885</v>
       </c>
       <c r="E74">
-        <v>0.01940825957248474</v>
+        <v>-0.01525082548394516</v>
       </c>
       <c r="F74">
-        <v>0.1478120082958757</v>
+        <v>0.02869172914045617</v>
       </c>
       <c r="G74">
-        <v>0.0407526553116201</v>
+        <v>-0.150011120132259</v>
       </c>
       <c r="H74">
-        <v>-0.05160341526669438</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.01952637073527112</v>
+      </c>
+      <c r="I74">
+        <v>-0.03195559516353997</v>
+      </c>
+      <c r="J74">
+        <v>0.04649190274273455</v>
+      </c>
+      <c r="K74">
+        <v>0.02002920037551159</v>
+      </c>
+      <c r="L74">
+        <v>-0.01483177681158728</v>
+      </c>
+      <c r="M74">
+        <v>-0.01618930567659324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09128533290633244</v>
+        <v>-0.09303674539711031</v>
       </c>
       <c r="C75">
-        <v>-0.01786483346881319</v>
+        <v>0.05256202291851809</v>
       </c>
       <c r="D75">
-        <v>0.009828494442393228</v>
+        <v>0.005144277721918404</v>
       </c>
       <c r="E75">
-        <v>0.03664132115565888</v>
+        <v>-0.01046954588552346</v>
       </c>
       <c r="F75">
-        <v>0.1176528894279005</v>
+        <v>0.01676255052910003</v>
       </c>
       <c r="G75">
-        <v>0.04903017694072735</v>
+        <v>-0.1068176229015229</v>
       </c>
       <c r="H75">
-        <v>-0.01360591360504537</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.07735410115192672</v>
+      </c>
+      <c r="I75">
+        <v>0.03402221187042212</v>
+      </c>
+      <c r="J75">
+        <v>0.02005509623871135</v>
+      </c>
+      <c r="K75">
+        <v>-0.00602032329600769</v>
+      </c>
+      <c r="L75">
+        <v>-0.0355023378742421</v>
+      </c>
+      <c r="M75">
+        <v>0.07550218976769803</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1362142567033179</v>
+        <v>-0.08954620396585382</v>
       </c>
       <c r="C76">
-        <v>-0.02764555077513949</v>
+        <v>0.06317270067857589</v>
       </c>
       <c r="D76">
-        <v>0.01234511465342255</v>
+        <v>0.001213618250359492</v>
       </c>
       <c r="E76">
-        <v>0.01225190077148292</v>
+        <v>0.005656812003244325</v>
       </c>
       <c r="F76">
-        <v>0.2490195437253593</v>
+        <v>0.04175232700749025</v>
       </c>
       <c r="G76">
-        <v>0.06158386689629616</v>
+        <v>-0.2005496562998795</v>
       </c>
       <c r="H76">
-        <v>-0.05361705878587335</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.1152748049792343</v>
+      </c>
+      <c r="I76">
+        <v>0.03044437455028758</v>
+      </c>
+      <c r="J76">
+        <v>0.04970445179502466</v>
+      </c>
+      <c r="K76">
+        <v>0.01201167282054218</v>
+      </c>
+      <c r="L76">
+        <v>-0.03716866688195618</v>
+      </c>
+      <c r="M76">
+        <v>-0.08769308127796412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07075393029743074</v>
+        <v>-0.06949022687632533</v>
       </c>
       <c r="C77">
-        <v>-0.0307695817246247</v>
+        <v>0.02202309662097681</v>
       </c>
       <c r="D77">
-        <v>0.03266092733964274</v>
+        <v>0.02293563431965022</v>
       </c>
       <c r="E77">
-        <v>-0.168608054951397</v>
+        <v>0.05547071248895263</v>
       </c>
       <c r="F77">
-        <v>-0.1416855020459052</v>
+        <v>-0.2790098270344865</v>
       </c>
       <c r="G77">
-        <v>-0.6588756526989101</v>
+        <v>0.1389844900739392</v>
       </c>
       <c r="H77">
-        <v>0.1216070494753542</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.3377011077388882</v>
+      </c>
+      <c r="I77">
+        <v>0.007505844639905035</v>
+      </c>
+      <c r="J77">
+        <v>-0.2691756843155351</v>
+      </c>
+      <c r="K77">
+        <v>-0.3963657178337128</v>
+      </c>
+      <c r="L77">
+        <v>-0.5123420245246455</v>
+      </c>
+      <c r="M77">
+        <v>0.02080771141881292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1398884592551163</v>
+        <v>-0.1640318814926468</v>
       </c>
       <c r="C78">
-        <v>-0.07067505044131851</v>
+        <v>0.1243703323740085</v>
       </c>
       <c r="D78">
-        <v>0.02147260899858824</v>
+        <v>-0.1708167459069386</v>
       </c>
       <c r="E78">
-        <v>-0.1746004331151269</v>
+        <v>0.1084984364775477</v>
       </c>
       <c r="F78">
-        <v>-0.04066559697842462</v>
+        <v>-0.1378497640814357</v>
       </c>
       <c r="G78">
-        <v>-0.01954044588860279</v>
+        <v>0.2616457245157978</v>
       </c>
       <c r="H78">
-        <v>0.07536801940683305</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.4481871150883855</v>
+      </c>
+      <c r="I78">
+        <v>0.4694313715225573</v>
+      </c>
+      <c r="J78">
+        <v>-0.4490938346775799</v>
+      </c>
+      <c r="K78">
+        <v>0.1892343342701052</v>
+      </c>
+      <c r="L78">
+        <v>-0.1259014165097622</v>
+      </c>
+      <c r="M78">
+        <v>-0.1155783024178968</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1409894206509675</v>
+        <v>-0.1339279966587182</v>
       </c>
       <c r="C79">
-        <v>-0.04658031609567174</v>
+        <v>0.07621826923359332</v>
       </c>
       <c r="D79">
-        <v>0.02249512896822176</v>
+        <v>0.0006664766961716109</v>
       </c>
       <c r="E79">
-        <v>0.04801548896804022</v>
+        <v>0.003319766076409002</v>
       </c>
       <c r="F79">
-        <v>0.1684851587862713</v>
+        <v>-0.007370699038616249</v>
       </c>
       <c r="G79">
-        <v>0.03992149266584159</v>
+        <v>-0.1651144726079873</v>
       </c>
       <c r="H79">
-        <v>-0.006027092360380685</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.08107150547796288</v>
+      </c>
+      <c r="I79">
+        <v>-0.0005220822127726719</v>
+      </c>
+      <c r="J79">
+        <v>0.07716369545961514</v>
+      </c>
+      <c r="K79">
+        <v>-0.01611125241277359</v>
+      </c>
+      <c r="L79">
+        <v>-0.07077310090885758</v>
+      </c>
+      <c r="M79">
+        <v>0.01905917251137603</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02511351286648787</v>
+        <v>-0.05648572331594205</v>
       </c>
       <c r="C80">
-        <v>0.001193338325847025</v>
+        <v>0.02701367129690344</v>
       </c>
       <c r="D80">
-        <v>9.133414140412387e-05</v>
+        <v>0.06792714076586905</v>
       </c>
       <c r="E80">
-        <v>0.04306207228918606</v>
+        <v>0.005805325787198049</v>
       </c>
       <c r="F80">
-        <v>-0.002509139623687065</v>
+        <v>-0.03025965388963368</v>
       </c>
       <c r="G80">
-        <v>-0.01935168362410054</v>
+        <v>0.03330103274312163</v>
       </c>
       <c r="H80">
-        <v>-0.06766550508689816</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.004600758054590049</v>
+      </c>
+      <c r="I80">
+        <v>0.02527816417651964</v>
+      </c>
+      <c r="J80">
+        <v>0.07362095037564979</v>
+      </c>
+      <c r="K80">
+        <v>0.05697227400915483</v>
+      </c>
+      <c r="L80">
+        <v>0.1844389989677331</v>
+      </c>
+      <c r="M80">
+        <v>-0.0009483305994465941</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1111045013823028</v>
+        <v>-0.1217020917056094</v>
       </c>
       <c r="C81">
-        <v>-0.05202273319099257</v>
+        <v>0.06133248515682595</v>
       </c>
       <c r="D81">
-        <v>0.02656907822828161</v>
+        <v>0.001500691620445707</v>
       </c>
       <c r="E81">
-        <v>0.0426068553685799</v>
+        <v>0.006587246871414581</v>
       </c>
       <c r="F81">
-        <v>0.1099388204131767</v>
+        <v>-0.02835976133303401</v>
       </c>
       <c r="G81">
-        <v>0.02224688959413368</v>
+        <v>-0.1360952315492066</v>
       </c>
       <c r="H81">
-        <v>-0.01778436915456208</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.08412808898269969</v>
+      </c>
+      <c r="I81">
+        <v>-0.02036891772105039</v>
+      </c>
+      <c r="J81">
+        <v>0.03510620687639826</v>
+      </c>
+      <c r="K81">
+        <v>-0.0066586363301539</v>
+      </c>
+      <c r="L81">
+        <v>-0.04004817475162347</v>
+      </c>
+      <c r="M81">
+        <v>0.1032206627693596</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1122254014136569</v>
+        <v>-0.1177201530875929</v>
       </c>
       <c r="C82">
-        <v>-0.02702386485227257</v>
+        <v>0.05398241329237156</v>
       </c>
       <c r="D82">
-        <v>0.05822284251795146</v>
+        <v>0.02434496090181746</v>
       </c>
       <c r="E82">
-        <v>0.07157927693123015</v>
+        <v>-0.002889790430406096</v>
       </c>
       <c r="F82">
-        <v>0.2639383393492385</v>
+        <v>0.02050723144834943</v>
       </c>
       <c r="G82">
-        <v>0.04735892701903791</v>
+        <v>-0.2382561355529109</v>
       </c>
       <c r="H82">
-        <v>0.02381961257376915</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.1178651794101324</v>
+      </c>
+      <c r="I82">
+        <v>-0.03953309465851004</v>
+      </c>
+      <c r="J82">
+        <v>0.04222538117612416</v>
+      </c>
+      <c r="K82">
+        <v>-0.06309179455963621</v>
+      </c>
+      <c r="L82">
+        <v>0.02347564341347649</v>
+      </c>
+      <c r="M82">
+        <v>0.04806022423002777</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.06141365031991802</v>
+        <v>-0.07512800832864397</v>
       </c>
       <c r="C83">
-        <v>-0.04807168565786801</v>
+        <v>0.07075531438815123</v>
       </c>
       <c r="D83">
-        <v>0.03393456729153162</v>
+        <v>0.01660962978650822</v>
       </c>
       <c r="E83">
-        <v>0.001243613982100305</v>
+        <v>0.006307340824127083</v>
       </c>
       <c r="F83">
-        <v>-0.06081876086682789</v>
+        <v>-0.02218721467533721</v>
       </c>
       <c r="G83">
-        <v>-0.01434190264210702</v>
+        <v>-0.02770707104575709</v>
       </c>
       <c r="H83">
-        <v>0.0927106477383088</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.07637279762268073</v>
+      </c>
+      <c r="I83">
+        <v>-0.00606675512191838</v>
+      </c>
+      <c r="J83">
+        <v>-0.01124560118695964</v>
+      </c>
+      <c r="K83">
+        <v>-0.07992550821328236</v>
+      </c>
+      <c r="L83">
+        <v>0.1330897783378793</v>
+      </c>
+      <c r="M83">
+        <v>-0.04149573913030327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05115090039806668</v>
+        <v>-0.04777193024782326</v>
       </c>
       <c r="C84">
-        <v>-0.04813375354093487</v>
+        <v>-0.02047151964947373</v>
       </c>
       <c r="D84">
-        <v>-0.06113185553153506</v>
+        <v>0.00668352331709727</v>
       </c>
       <c r="E84">
-        <v>0.008067521860119537</v>
+        <v>-0.02081358583558581</v>
       </c>
       <c r="F84">
-        <v>0.03882658776832594</v>
+        <v>-0.004390682987580876</v>
       </c>
       <c r="G84">
-        <v>0.1477743634103737</v>
+        <v>0.2125258531299917</v>
       </c>
       <c r="H84">
-        <v>0.01762765689016258</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.1529667401172805</v>
+      </c>
+      <c r="I84">
+        <v>-0.1865453690916814</v>
+      </c>
+      <c r="J84">
+        <v>-0.009272058457217167</v>
+      </c>
+      <c r="K84">
+        <v>-0.02877531814577982</v>
+      </c>
+      <c r="L84">
+        <v>0.2118009697730741</v>
+      </c>
+      <c r="M84">
+        <v>-0.5021700592347214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.08917384381856311</v>
+        <v>-0.10934074090961</v>
       </c>
       <c r="C85">
-        <v>-0.04030753679727976</v>
+        <v>0.05113687424689181</v>
       </c>
       <c r="D85">
-        <v>0.04882166230413382</v>
+        <v>0.009959418863665349</v>
       </c>
       <c r="E85">
-        <v>0.02733434296882693</v>
+        <v>0.02941288890816521</v>
       </c>
       <c r="F85">
-        <v>0.1993032294451885</v>
+        <v>-0.01010184769350677</v>
       </c>
       <c r="G85">
-        <v>-0.005074591007229773</v>
+        <v>-0.170969687719599</v>
       </c>
       <c r="H85">
-        <v>-0.04726630888705138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.08362498050133618</v>
+      </c>
+      <c r="I85">
+        <v>-0.006033315920532062</v>
+      </c>
+      <c r="J85">
+        <v>0.07413011912503603</v>
+      </c>
+      <c r="K85">
+        <v>-0.0001974628926319338</v>
+      </c>
+      <c r="L85">
+        <v>-0.09140835222143075</v>
+      </c>
+      <c r="M85">
+        <v>0.03676892944600395</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04759331515494651</v>
+        <v>-0.07228928931842504</v>
       </c>
       <c r="C86">
-        <v>-0.04536648241857822</v>
+        <v>0.01796773240973422</v>
       </c>
       <c r="D86">
-        <v>0.003126524005573912</v>
+        <v>-0.01188023251529149</v>
       </c>
       <c r="E86">
-        <v>-0.04064851647717498</v>
+        <v>0.1079852177171974</v>
       </c>
       <c r="F86">
-        <v>-0.0474379429322634</v>
+        <v>-0.03222788652116643</v>
       </c>
       <c r="G86">
-        <v>-0.0637484681319011</v>
+        <v>0.4182065758620157</v>
       </c>
       <c r="H86">
-        <v>-0.1231067689054835</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.4598591532920731</v>
+      </c>
+      <c r="I86">
+        <v>-0.5063347474012333</v>
+      </c>
+      <c r="J86">
+        <v>0.241235214807418</v>
+      </c>
+      <c r="K86">
+        <v>-0.003522815741593142</v>
+      </c>
+      <c r="L86">
+        <v>-0.208010983906537</v>
+      </c>
+      <c r="M86">
+        <v>-0.004011202656549859</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09100459236395575</v>
+        <v>-0.1118656798089237</v>
       </c>
       <c r="C87">
-        <v>-0.05864230507633284</v>
+        <v>0.06867081215394771</v>
       </c>
       <c r="D87">
-        <v>0.01530040910366708</v>
+        <v>-0.02751598442532852</v>
       </c>
       <c r="E87">
-        <v>-0.09778804062831585</v>
+        <v>0.03488566143357737</v>
       </c>
       <c r="F87">
-        <v>-0.02948157245843975</v>
+        <v>-0.1133836011502158</v>
       </c>
       <c r="G87">
-        <v>-0.1326611864944536</v>
+        <v>0.09348023155247753</v>
       </c>
       <c r="H87">
-        <v>0.06613376728916055</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.1132550336414357</v>
+      </c>
+      <c r="I87">
+        <v>-0.04501089294355914</v>
+      </c>
+      <c r="J87">
+        <v>-0.0448296879465926</v>
+      </c>
+      <c r="K87">
+        <v>-0.1950947991806179</v>
+      </c>
+      <c r="L87">
+        <v>-0.03464344758674191</v>
+      </c>
+      <c r="M87">
+        <v>0.05623862956851389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05540540938588463</v>
+        <v>-0.05801031797815073</v>
       </c>
       <c r="C88">
-        <v>-0.04034187938135165</v>
+        <v>0.05257727581630022</v>
       </c>
       <c r="D88">
-        <v>0.02388624293213473</v>
+        <v>0.0260805187517796</v>
       </c>
       <c r="E88">
-        <v>-0.01038338810840752</v>
+        <v>0.007525310874520466</v>
       </c>
       <c r="F88">
-        <v>-0.01291474854150717</v>
+        <v>-0.03822874404369532</v>
       </c>
       <c r="G88">
-        <v>-0.02892001710475135</v>
+        <v>-0.02873066876953056</v>
       </c>
       <c r="H88">
-        <v>0.03111243283105097</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.01698679623361007</v>
+      </c>
+      <c r="I88">
+        <v>-0.01568645639922442</v>
+      </c>
+      <c r="J88">
+        <v>0.0008002414981163324</v>
+      </c>
+      <c r="K88">
+        <v>0.02877154201550232</v>
+      </c>
+      <c r="L88">
+        <v>0.05814206924700098</v>
+      </c>
+      <c r="M88">
+        <v>0.03439895426137015</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1636811027346564</v>
+        <v>-0.212770602864136</v>
       </c>
       <c r="C89">
-        <v>0.3242952607142695</v>
+        <v>-0.3578696151149688</v>
       </c>
       <c r="D89">
-        <v>0.06105369730391175</v>
+        <v>-0.0370303875013537</v>
       </c>
       <c r="E89">
-        <v>-0.08934083005864515</v>
+        <v>0.08386051522869806</v>
       </c>
       <c r="F89">
-        <v>-0.04191852321735634</v>
+        <v>-0.01716065713439338</v>
       </c>
       <c r="G89">
-        <v>-0.02028527423403028</v>
+        <v>0.0005512651517285396</v>
       </c>
       <c r="H89">
-        <v>0.002436467526422407</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.005523043662180364</v>
+      </c>
+      <c r="I89">
+        <v>-0.02041399000708149</v>
+      </c>
+      <c r="J89">
+        <v>-0.05404672246970759</v>
+      </c>
+      <c r="K89">
+        <v>0.03685266559548137</v>
+      </c>
+      <c r="L89">
+        <v>0.06080989844078339</v>
+      </c>
+      <c r="M89">
+        <v>0.08058970983997599</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1202090025739293</v>
+        <v>-0.1466290800438988</v>
       </c>
       <c r="C90">
-        <v>0.2784568380347055</v>
+        <v>-0.2713563401138063</v>
       </c>
       <c r="D90">
-        <v>0.008946005850444935</v>
+        <v>0.0147410398470811</v>
       </c>
       <c r="E90">
-        <v>-0.05288095656220003</v>
+        <v>0.02386967610966381</v>
       </c>
       <c r="F90">
-        <v>-0.0502546752592568</v>
+        <v>-0.0332201871566731</v>
       </c>
       <c r="G90">
-        <v>-0.1016494819664418</v>
+        <v>0.01539887841456786</v>
       </c>
       <c r="H90">
-        <v>0.04368982649196226</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.05783886401853542</v>
+      </c>
+      <c r="I90">
+        <v>-0.02132570435948371</v>
+      </c>
+      <c r="J90">
+        <v>-0.01259545780120916</v>
+      </c>
+      <c r="K90">
+        <v>0.02044052122660895</v>
+      </c>
+      <c r="L90">
+        <v>0.002647734649100114</v>
+      </c>
+      <c r="M90">
+        <v>-0.06239308408630525</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08622769218857175</v>
+        <v>-0.07712128249850053</v>
       </c>
       <c r="C91">
-        <v>-0.01975249181745477</v>
+        <v>0.05491221903342849</v>
       </c>
       <c r="D91">
-        <v>0.006433942259783369</v>
+        <v>-0.007629139987173949</v>
       </c>
       <c r="E91">
-        <v>-0.01938294314462791</v>
+        <v>0.006936925109605657</v>
       </c>
       <c r="F91">
-        <v>0.1094748575855486</v>
+        <v>0.01218384927440034</v>
       </c>
       <c r="G91">
-        <v>0.05892428863083346</v>
+        <v>-0.08992580462355257</v>
       </c>
       <c r="H91">
-        <v>-0.01692233944857926</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.06388430999527138</v>
+      </c>
+      <c r="I91">
+        <v>0.003263334762831059</v>
+      </c>
+      <c r="J91">
+        <v>-0.002063823098351909</v>
+      </c>
+      <c r="K91">
+        <v>0.01340293524024051</v>
+      </c>
+      <c r="L91">
+        <v>-0.01874583770680807</v>
+      </c>
+      <c r="M91">
+        <v>0.001059941014387864</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1391782912242022</v>
+        <v>-0.16424014001558</v>
       </c>
       <c r="C92">
-        <v>0.304831661940331</v>
+        <v>-0.3029412409541625</v>
       </c>
       <c r="D92">
-        <v>0.04267597113645131</v>
+        <v>-0.0289368712253544</v>
       </c>
       <c r="E92">
-        <v>-0.04151962485159159</v>
+        <v>0.04820118588137502</v>
       </c>
       <c r="F92">
-        <v>-0.03128733502390484</v>
+        <v>-0.03294440858947904</v>
       </c>
       <c r="G92">
-        <v>0.08956324054088352</v>
+        <v>-0.02592089539414662</v>
       </c>
       <c r="H92">
-        <v>-0.01487143018587298</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.002870292542104351</v>
+      </c>
+      <c r="I92">
+        <v>0.01432629084622894</v>
+      </c>
+      <c r="J92">
+        <v>-0.01572712297709252</v>
+      </c>
+      <c r="K92">
+        <v>0.03565654471036055</v>
+      </c>
+      <c r="L92">
+        <v>0.04113002274490237</v>
+      </c>
+      <c r="M92">
+        <v>0.08084043606920296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1345595619529305</v>
+        <v>-0.1636755485085734</v>
       </c>
       <c r="C93">
-        <v>0.2596525157997271</v>
+        <v>-0.2878920981533537</v>
       </c>
       <c r="D93">
-        <v>0.02262507743473843</v>
+        <v>0.03237136555582036</v>
       </c>
       <c r="E93">
-        <v>-0.02157328116495217</v>
+        <v>0.0110001333700083</v>
       </c>
       <c r="F93">
-        <v>-0.04109565729618722</v>
+        <v>-0.01639699148784421</v>
       </c>
       <c r="G93">
-        <v>-0.01667490329537755</v>
+        <v>0.01439497577471948</v>
       </c>
       <c r="H93">
-        <v>0.008663247959573357</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.00693996793694192</v>
+      </c>
+      <c r="I93">
+        <v>-0.02393195142934292</v>
+      </c>
+      <c r="J93">
+        <v>0.03071452982970775</v>
+      </c>
+      <c r="K93">
+        <v>-0.005538425948863183</v>
+      </c>
+      <c r="L93">
+        <v>0.02478659097553436</v>
+      </c>
+      <c r="M93">
+        <v>-0.04544067679100901</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09101660046095639</v>
+        <v>-0.1087635432371781</v>
       </c>
       <c r="C94">
-        <v>-0.05562234291573653</v>
+        <v>0.07607027176865885</v>
       </c>
       <c r="D94">
-        <v>0.007035702158055593</v>
+        <v>-0.01945494141610124</v>
       </c>
       <c r="E94">
-        <v>-0.00204043477184004</v>
+        <v>0.01464161446467925</v>
       </c>
       <c r="F94">
-        <v>0.1706624306633244</v>
+        <v>0.02853972633863085</v>
       </c>
       <c r="G94">
-        <v>0.07998212861413168</v>
+        <v>-0.1274984528219911</v>
       </c>
       <c r="H94">
-        <v>-0.05032613196403594</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.06783539803145847</v>
+      </c>
+      <c r="I94">
+        <v>0.02594377197402779</v>
+      </c>
+      <c r="J94">
+        <v>0.0291558943047297</v>
+      </c>
+      <c r="K94">
+        <v>0.04653571577306127</v>
+      </c>
+      <c r="L94">
+        <v>-0.01843859055655682</v>
+      </c>
+      <c r="M94">
+        <v>0.0214856868170203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1035787679400584</v>
+        <v>-0.1265117131780585</v>
       </c>
       <c r="C95">
-        <v>-0.0723957311655955</v>
+        <v>0.07065749039848195</v>
       </c>
       <c r="D95">
-        <v>0.06436038602598937</v>
+        <v>-0.01720945579916642</v>
       </c>
       <c r="E95">
-        <v>-0.05149531089939815</v>
+        <v>0.06294698621711857</v>
       </c>
       <c r="F95">
-        <v>-0.03411012126341403</v>
+        <v>-0.08358071663518869</v>
       </c>
       <c r="G95">
-        <v>0.01251004508027398</v>
+        <v>0.2124370427572611</v>
       </c>
       <c r="H95">
-        <v>-0.003517338728105824</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.03882523556722275</v>
+      </c>
+      <c r="I95">
+        <v>-0.1029828578691278</v>
+      </c>
+      <c r="J95">
+        <v>0.1148916820130449</v>
+      </c>
+      <c r="K95">
+        <v>0.08328487051244716</v>
+      </c>
+      <c r="L95">
+        <v>0.09634518384045372</v>
+      </c>
+      <c r="M95">
+        <v>0.5099669561789271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>5.65633412327451e-05</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.001060333304441352</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0002864171473014312</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.001479630767584548</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.0006261817675462027</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.0002082098916362499</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.0008370255836196261</v>
+      </c>
+      <c r="I96">
+        <v>-0.00257139388441421</v>
+      </c>
+      <c r="J96">
+        <v>0.001653550699135166</v>
+      </c>
+      <c r="K96">
+        <v>-0.001734157017318932</v>
+      </c>
+      <c r="L96">
+        <v>-0.002993655477169234</v>
+      </c>
+      <c r="M96">
+        <v>-0.002645386827597939</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.256631791036709</v>
+        <v>-0.1634179734682604</v>
       </c>
       <c r="C97">
-        <v>-0.02352415428330805</v>
+        <v>-0.007997791750038825</v>
       </c>
       <c r="D97">
-        <v>-0.8713811538070116</v>
+        <v>-0.1051544409595654</v>
       </c>
       <c r="E97">
-        <v>0.169905184755054</v>
+        <v>-0.9287861223446504</v>
       </c>
       <c r="F97">
-        <v>-0.1369581327703992</v>
+        <v>-0.03197553350487441</v>
       </c>
       <c r="G97">
-        <v>-0.04503587563728884</v>
+        <v>0.1155462884639185</v>
       </c>
       <c r="H97">
-        <v>0.01180417247065322</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.03337235878132482</v>
+      </c>
+      <c r="I97">
+        <v>-0.06450590597668478</v>
+      </c>
+      <c r="J97">
+        <v>-0.06524565497607447</v>
+      </c>
+      <c r="K97">
+        <v>0.007101314599162059</v>
+      </c>
+      <c r="L97">
+        <v>-0.006467502074415717</v>
+      </c>
+      <c r="M97">
+        <v>0.03760685868724734</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2856205667147191</v>
+        <v>-0.2662608826932027</v>
       </c>
       <c r="C98">
-        <v>-0.1151269284983105</v>
+        <v>0.1081664870218307</v>
       </c>
       <c r="D98">
-        <v>0.1866312229979442</v>
+        <v>-0.0006489696612363443</v>
       </c>
       <c r="E98">
-        <v>0.2693141593308883</v>
+        <v>0.01960166481777782</v>
       </c>
       <c r="F98">
-        <v>-0.4720794363632424</v>
+        <v>0.457794736918604</v>
       </c>
       <c r="G98">
-        <v>0.4185156357506965</v>
+        <v>0.1789425567536658</v>
       </c>
       <c r="H98">
-        <v>0.2965192057309197</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.03558996307828258</v>
+      </c>
+      <c r="I98">
+        <v>0.2300859005556568</v>
+      </c>
+      <c r="J98">
+        <v>-0.1063619379645726</v>
+      </c>
+      <c r="K98">
+        <v>-0.5373735544156575</v>
+      </c>
+      <c r="L98">
+        <v>0.3333268869417926</v>
+      </c>
+      <c r="M98">
+        <v>0.05463359064310001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06055485654315658</v>
+        <v>-0.06778256555151074</v>
       </c>
       <c r="C99">
-        <v>-0.04851620861337759</v>
+        <v>0.05555625798293026</v>
       </c>
       <c r="D99">
-        <v>0.06355579641696736</v>
+        <v>-0.007374785412712791</v>
       </c>
       <c r="E99">
-        <v>-0.003774591355423402</v>
+        <v>0.04841936746111742</v>
       </c>
       <c r="F99">
-        <v>-0.03637602429029349</v>
+        <v>0.008673119705753544</v>
       </c>
       <c r="G99">
-        <v>-0.002394198989149018</v>
+        <v>-0.01600574719596051</v>
       </c>
       <c r="H99">
-        <v>0.07494092237291802</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.007854867585545836</v>
+      </c>
+      <c r="I99">
+        <v>0.003823732063821029</v>
+      </c>
+      <c r="J99">
+        <v>-0.06561515939595379</v>
+      </c>
+      <c r="K99">
+        <v>-0.03667058162011774</v>
+      </c>
+      <c r="L99">
+        <v>-0.04230642329581076</v>
+      </c>
+      <c r="M99">
+        <v>0.1047234105920463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05244421653256175</v>
+        <v>-0.04339417452734411</v>
       </c>
       <c r="C101">
-        <v>-0.01981302677641227</v>
+        <v>0.02837723711510077</v>
       </c>
       <c r="D101">
-        <v>0.00830884494146703</v>
+        <v>0.004315225977604552</v>
       </c>
       <c r="E101">
-        <v>-0.02453749228937446</v>
+        <v>0.01940379085891648</v>
       </c>
       <c r="F101">
-        <v>-0.001404583721825323</v>
+        <v>-0.06098595017744451</v>
       </c>
       <c r="G101">
-        <v>0.01488334969304137</v>
+        <v>-0.02527812111919227</v>
       </c>
       <c r="H101">
-        <v>-0.02053937070509177</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.02396787502632241</v>
+      </c>
+      <c r="I101">
+        <v>0.0002344837453198334</v>
+      </c>
+      <c r="J101">
+        <v>0.06031657353237924</v>
+      </c>
+      <c r="K101">
+        <v>-0.012461771586365</v>
+      </c>
+      <c r="L101">
+        <v>0.05296545055510465</v>
+      </c>
+      <c r="M101">
+        <v>-0.01013831113168282</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
